--- a/Chèn hình ảnh vào trang Web.xlsx
+++ b/Chèn hình ảnh vào trang Web.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LAP TRINH WebAPNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lập trình WebAPNET_09-12-2024\LapTrinhWeb1811\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F80767D-170D-4F00-A116-E13BA4BDA2B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Link Video:</t>
   </si>
@@ -66,11 +66,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,13 +101,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -270,6 +281,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>115165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="200025"/>
+          <a:ext cx="12134850" cy="6201640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -532,16 +586,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -594,14 +648,37 @@
       <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C31" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Chèn hình ảnh vào trang Web.xlsx
+++ b/Chèn hình ảnh vào trang Web.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lập trình WebAPNET_09-12-2024\LapTrinhWeb1811\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LAP TRINH WebAPNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AB05FA-93BA-44B3-911B-6493E5180D35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Link Video:</t>
   </si>
@@ -60,13 +62,34 @@
     <t>https://www.youtube.com/watch?v=o035V42GCHI</t>
   </si>
   <si>
-    <t>Toàn lý thuyết về JS</t>
+    <t>Xuất hình ảnh từ CSDL ra trước đã</t>
+  </si>
+  <si>
+    <t>Lưu biến hình ảnh</t>
+  </si>
+  <si>
+    <t>Show biến hình ảnh.</t>
+  </si>
+  <si>
+    <t>ở đây t có một thư mục lưu hình ảnh thì t sẽ Insert dữ liệu vào như thế nào.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K_aJrOu2aak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QLSbaWZzJdQ</t>
+  </si>
+  <si>
+    <t>https://gemini.google.com/app/a564a938295cff57?hl=vi</t>
+  </si>
+  <si>
+    <t>Link tài liệu.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,14 +123,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -278,6 +319,193 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>201212</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81012DE-6226-4C50-8F47-26FEFE456FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="476250"/>
+          <a:ext cx="8507012" cy="2667372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D00203-4BA0-4314-9EA7-59498E9E34D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="6934200"/>
+          <a:ext cx="6010275" cy="876422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>181658</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139E490E-252F-40BD-8933-76A4CD27526C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="6210300"/>
+          <a:ext cx="4896533" cy="2553056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95311</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51D68D3-D601-41E2-B4BD-8C92406E26FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7458075" y="7353300"/>
+          <a:ext cx="1552575" cy="19111"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -298,7 +526,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -313,6 +547,327 @@
         <a:xfrm>
           <a:off x="666750" y="200025"/>
           <a:ext cx="12134850" cy="6201640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324879</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7C37CC-1D4B-4059-A35E-2107FB0EF964}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="371475"/>
+          <a:ext cx="7030479" cy="4944165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9157695-6057-4F40-BF3C-A606B9F9927E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="1228725"/>
+          <a:ext cx="1228725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60604E68-FAD4-47F0-A750-94A650A10704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="3876675"/>
+          <a:ext cx="6486525" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3E94CC-D464-4DA7-9269-7F8E4ADDF9E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4924425" y="2019301"/>
+          <a:ext cx="5295900" cy="1819274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43E5458-CC9B-46C6-90EA-BCC635F90F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="1409700"/>
+          <a:ext cx="6981825" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E62DBB5-5046-418A-8C6B-01E7D8E3EE06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12839700" y="1771650"/>
+          <a:ext cx="1781175" cy="724001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,11 +1141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,45 +1187,73 @@
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C31" r:id="rId1"/>
+    <hyperlink ref="C31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{E7A89D2E-09CC-48CB-A0A1-FCE6F057CD5B}"/>
+    <hyperlink ref="C35" r:id="rId3" xr:uid="{C65EEF1E-43F3-4C1C-BB9D-8182306044DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -682,4 +1265,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C85CD56-3475-474B-A3A6-4F83FAC851FD}">
+  <dimension ref="R11:V15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="15" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="R11:T11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>